--- a/jpcore-r4/feature/改行テスト/StructureDefinition-jp-location.xlsx
+++ b/jpcore-r4/feature/改行テスト/StructureDefinition-jp-location.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="255">
   <si>
     <t>Property</t>
   </si>
@@ -146,10 +146,6 @@
   </si>
   <si>
     <t>サービスが提供され、リソースとそれに関わる人たちが存在する物理的な場所の詳細情報と位置情報。</t>
-  </si>
-  <si>
-    <t>dom-2:もしリソースが他のリソースに含まれている場合、そのリソースにはネストされたリソースを含めてはなりません (moshi risōsu ga hoka no risōsu ni fukumarete iru baai, sono risōsu ni wa nesuto sareta risōsu o fukumete wa narimasen). {contained.contained.empty()}
-dom-3:もしリソースが他のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含まれるリソースに参照されるべきです。 {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:もしリソースが別のリソースの中に含まれる場合、meta.versionIdまたはmeta.lastUpdatedを持つべきではありません。 {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:もしリソースが他のリソースに含まれている場合、セキュリティラベルを持つべきではありません。 {contained.meta.security.empty()}dom-6:資源は堅牢な管理のために物語を持つべきである。 {text.`div`.exists()}</t>
   </si>
   <si>
     <t>.Role[classCode=SDLC]</t>
@@ -1263,10 +1259,10 @@
         <v>38</v>
       </c>
       <c r="AJ1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK1" t="s" s="2">
         <v>44</v>
-      </c>
-      <c r="AK1" t="s" s="2">
-        <v>45</v>
       </c>
       <c r="AL1" t="s" s="2">
         <v>38</v>
@@ -1274,10 +1270,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1288,28 +1284,28 @@
         <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J2" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="H2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J2" t="s" s="2">
+      <c r="K2" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="M2" t="s" s="2">
+      <c r="N2" t="s" s="2">
         <v>51</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>52</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1359,13 +1355,13 @@
         <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>38</v>
@@ -1382,10 +1378,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1396,25 +1392,25 @@
         <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>48</v>
-      </c>
       <c r="K3" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="L3" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>56</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>57</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1465,19 +1461,19 @@
         <v>38</v>
       </c>
       <c r="AF3" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AG3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH3" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI3" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
         <v>58</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AI3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ3" t="s" s="2">
-        <v>59</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>38</v>
@@ -1488,10 +1484,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1502,28 +1498,28 @@
         <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="H4" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>48</v>
-      </c>
       <c r="J4" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>62</v>
       </c>
-      <c r="M4" t="s" s="2">
+      <c r="N4" t="s" s="2">
         <v>63</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>64</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -1573,19 +1569,19 @@
         <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>38</v>
@@ -1596,10 +1592,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1610,7 +1606,7 @@
         <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>38</v>
@@ -1622,16 +1618,16 @@
         <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>67</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>68</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>69</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>70</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1657,43 +1653,43 @@
         <v>38</v>
       </c>
       <c r="X5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y5" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="Y5" t="s" s="2">
+      <c r="Z5" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="Z5" t="s" s="2">
+      <c r="AA5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF5" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="AA5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="AG5" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>38</v>
@@ -1704,21 +1700,21 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>38</v>
@@ -1730,16 +1726,16 @@
         <v>38</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>79</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -1789,22 +1785,22 @@
         <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AK6" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AK6" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>38</v>
@@ -1812,14 +1808,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -1838,16 +1834,16 @@
         <v>38</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -1897,7 +1893,7 @@
         <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>39</v>
@@ -1912,7 +1908,7 @@
         <v>38</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>38</v>
@@ -1920,14 +1916,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -1946,16 +1942,16 @@
         <v>38</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>96</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2005,7 +2001,7 @@
         <v>38</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>39</v>
@@ -2017,10 +2013,10 @@
         <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>38</v>
@@ -2028,14 +2024,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2048,25 +2044,25 @@
         <v>38</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L9" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="M9" t="s" s="2">
+      <c r="N9" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="O9" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="O9" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>38</v>
@@ -2115,7 +2111,7 @@
         <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>39</v>
@@ -2127,10 +2123,10 @@
         <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>38</v>
@@ -2138,10 +2134,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2161,20 +2157,20 @@
         <v>38</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="L10" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="M10" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>38</v>
@@ -2223,7 +2219,7 @@
         <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>39</v>
@@ -2235,21 +2231,21 @@
         <v>38</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK10" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AL10" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="AL10" t="s" s="2">
-        <v>109</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2260,28 +2256,28 @@
         <v>39</v>
       </c>
       <c r="G11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I11" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="H11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>48</v>
-      </c>
       <c r="J11" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L11" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2307,57 +2303,57 @@
         <v>38</v>
       </c>
       <c r="X11" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="Y11" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="Y11" t="s" s="2">
+      <c r="Z11" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="Z11" t="s" s="2">
+      <c r="AA11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AK11" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="AA11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AK11" t="s" s="2">
+      <c r="AL11" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="AL11" t="s" s="2">
-        <v>118</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2368,28 +2364,28 @@
         <v>39</v>
       </c>
       <c r="G12" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J12" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="H12" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J12" t="s" s="2">
-        <v>48</v>
-      </c>
       <c r="K12" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2415,57 +2411,57 @@
         <v>38</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y12" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="Z12" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="Z12" t="s" s="2">
+      <c r="AA12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AK12" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="AA12" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>126</v>
-      </c>
       <c r="AL12" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2476,28 +2472,28 @@
         <v>39</v>
       </c>
       <c r="G13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J13" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="H13" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J13" t="s" s="2">
-        <v>48</v>
-      </c>
       <c r="K13" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2547,22 +2543,22 @@
         <v>38</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>38</v>
@@ -2570,10 +2566,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2596,19 +2592,19 @@
         <v>38</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="N14" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="M14" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>38</v>
@@ -2657,7 +2653,7 @@
         <v>38</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>39</v>
@@ -2669,10 +2665,10 @@
         <v>38</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>38</v>
@@ -2680,10 +2676,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2694,31 +2690,31 @@
         <v>39</v>
       </c>
       <c r="G15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J15" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="H15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J15" t="s" s="2">
-        <v>48</v>
-      </c>
       <c r="K15" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="O15" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>38</v>
@@ -2767,22 +2763,22 @@
         <v>38</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>38</v>
@@ -2790,10 +2786,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2804,31 +2800,31 @@
         <v>39</v>
       </c>
       <c r="G16" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J16" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="H16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J16" t="s" s="2">
-        <v>48</v>
-      </c>
       <c r="K16" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="N16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>38</v>
@@ -2853,57 +2849,57 @@
         <v>38</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Y16" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="Z16" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="Z16" t="s" s="2">
+      <c r="AA16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="AA16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AL16" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>150</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2923,19 +2919,19 @@
         <v>38</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -2961,14 +2957,14 @@
         <v>38</v>
       </c>
       <c r="X17" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="Y17" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="Y17" t="s" s="2">
+      <c r="Z17" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="Z17" t="s" s="2">
-        <v>158</v>
-      </c>
       <c r="AA17" t="s" s="2">
         <v>38</v>
       </c>
@@ -2985,7 +2981,7 @@
         <v>38</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>39</v>
@@ -2997,21 +2993,21 @@
         <v>38</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3034,13 +3030,13 @@
         <v>38</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3091,7 +3087,7 @@
         <v>38</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>39</v>
@@ -3103,10 +3099,10 @@
         <v>38</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>38</v>
@@ -3114,10 +3110,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3128,7 +3124,7 @@
         <v>39</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>38</v>
@@ -3140,19 +3136,19 @@
         <v>38</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="N19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>38</v>
@@ -3201,22 +3197,22 @@
         <v>38</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>38</v>
@@ -3224,10 +3220,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3238,31 +3234,31 @@
         <v>39</v>
       </c>
       <c r="G20" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J20" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="H20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J20" t="s" s="2">
-        <v>48</v>
-      </c>
       <c r="K20" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="N20" t="s" s="2">
+      <c r="O20" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>38</v>
@@ -3287,57 +3283,57 @@
         <v>38</v>
       </c>
       <c r="X20" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="Y20" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="Y20" t="s" s="2">
+      <c r="Z20" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="Z20" t="s" s="2">
+      <c r="AA20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="AA20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>180</v>
-      </c>
       <c r="AL20" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3348,7 +3344,7 @@
         <v>39</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>38</v>
@@ -3360,17 +3356,17 @@
         <v>38</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>38</v>
@@ -3419,22 +3415,22 @@
         <v>38</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>38</v>
@@ -3442,10 +3438,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3456,7 +3452,7 @@
         <v>39</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>38</v>
@@ -3468,13 +3464,13 @@
         <v>38</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3525,13 +3521,13 @@
         <v>38</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>38</v>
@@ -3540,7 +3536,7 @@
         <v>38</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>38</v>
@@ -3548,14 +3544,14 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -3574,16 +3570,16 @@
         <v>38</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="L23" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="M23" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -3633,7 +3629,7 @@
         <v>38</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>39</v>
@@ -3645,10 +3641,10 @@
         <v>38</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>38</v>
@@ -3656,14 +3652,14 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -3676,25 +3672,25 @@
         <v>38</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="M24" t="s" s="2">
-        <v>197</v>
-      </c>
       <c r="N24" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>38</v>
@@ -3743,7 +3739,7 @@
         <v>38</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>39</v>
@@ -3755,10 +3751,10 @@
         <v>38</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>38</v>
@@ -3766,10 +3762,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3777,10 +3773,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>38</v>
@@ -3792,16 +3788,16 @@
         <v>38</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -3851,22 +3847,22 @@
         <v>38</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>38</v>
@@ -3874,10 +3870,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3885,10 +3881,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>38</v>
@@ -3900,16 +3896,16 @@
         <v>38</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="M26" t="s" s="2">
-        <v>207</v>
-      </c>
       <c r="N26" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -3959,22 +3955,22 @@
         <v>38</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>38</v>
@@ -3982,10 +3978,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3996,7 +3992,7 @@
         <v>39</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>38</v>
@@ -4008,16 +4004,16 @@
         <v>38</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="M27" t="s" s="2">
-        <v>210</v>
-      </c>
       <c r="N27" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4067,22 +4063,22 @@
         <v>38</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>38</v>
@@ -4090,10 +4086,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4104,31 +4100,31 @@
         <v>39</v>
       </c>
       <c r="G28" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J28" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="H28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J28" t="s" s="2">
-        <v>48</v>
-      </c>
       <c r="K28" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="N28" t="s" s="2">
+      <c r="O28" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>38</v>
@@ -4177,22 +4173,22 @@
         <v>38</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>38</v>
@@ -4200,10 +4196,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4214,7 +4210,7 @@
         <v>39</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>38</v>
@@ -4226,19 +4222,19 @@
         <v>38</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="N29" t="s" s="2">
+      <c r="O29" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>38</v>
@@ -4287,22 +4283,22 @@
         <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>38</v>
@@ -4310,10 +4306,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4336,16 +4332,16 @@
         <v>38</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4395,7 +4391,7 @@
         <v>38</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>39</v>
@@ -4407,10 +4403,10 @@
         <v>38</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>38</v>
@@ -4418,10 +4414,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4432,7 +4428,7 @@
         <v>39</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>38</v>
@@ -4444,13 +4440,13 @@
         <v>38</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4501,13 +4497,13 @@
         <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>38</v>
@@ -4516,7 +4512,7 @@
         <v>38</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>38</v>
@@ -4524,14 +4520,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -4550,16 +4546,16 @@
         <v>38</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="L32" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="M32" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -4609,7 +4605,7 @@
         <v>38</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>39</v>
@@ -4621,10 +4617,10 @@
         <v>38</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>38</v>
@@ -4632,14 +4628,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -4652,25 +4648,25 @@
         <v>38</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="M33" t="s" s="2">
-        <v>197</v>
-      </c>
       <c r="N33" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>38</v>
@@ -4719,7 +4715,7 @@
         <v>38</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>39</v>
@@ -4731,10 +4727,10 @@
         <v>38</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>38</v>
@@ -4742,10 +4738,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4768,16 +4764,16 @@
         <v>38</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -4803,14 +4799,14 @@
         <v>38</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Y34" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="Z34" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="Z34" t="s" s="2">
-        <v>238</v>
-      </c>
       <c r="AA34" t="s" s="2">
         <v>38</v>
       </c>
@@ -4827,7 +4823,7 @@
         <v>38</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>39</v>
@@ -4839,10 +4835,10 @@
         <v>38</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>38</v>
@@ -4850,10 +4846,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4864,7 +4860,7 @@
         <v>39</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>38</v>
@@ -4876,13 +4872,13 @@
         <v>38</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -4933,22 +4929,22 @@
         <v>38</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>38</v>
@@ -4956,10 +4952,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -4970,7 +4966,7 @@
         <v>39</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>38</v>
@@ -4982,13 +4978,13 @@
         <v>38</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="L36" t="s" s="2">
-        <v>245</v>
-      </c>
       <c r="M36" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5039,22 +5035,22 @@
         <v>38</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>38</v>
@@ -5062,10 +5058,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5076,7 +5072,7 @@
         <v>39</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>38</v>
@@ -5088,13 +5084,13 @@
         <v>38</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5145,22 +5141,22 @@
         <v>38</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>38</v>
@@ -5168,10 +5164,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5182,7 +5178,7 @@
         <v>39</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>38</v>
@@ -5194,13 +5190,13 @@
         <v>38</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5251,22 +5247,22 @@
         <v>38</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>38</v>
@@ -5274,10 +5270,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5300,19 +5296,19 @@
         <v>38</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="O39" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>38</v>
@@ -5361,7 +5357,7 @@
         <v>38</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>39</v>
@@ -5373,10 +5369,10 @@
         <v>38</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>38</v>
